--- a/ig/StructureDefinition-ror-organization-drop-zone.xlsx
+++ b/ig/StructureDefinition-ror-organization-drop-zone.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization-drop-zone.xlsx
+++ b/ig/StructureDefinition-ror-organization-drop-zone.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
